--- a/data/web_login_cases.xlsx
+++ b/data/web_login_cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>case_id</t>
   </si>
@@ -44,7 +44,7 @@
 4、通过获取页面内容得到实际结果进行断言</t>
   </si>
   <si>
-    <t>用户名密码不能为空</t>
+    <t>用户名或密码输入错误</t>
   </si>
   <si>
     <t>密码为空</t>
@@ -59,6 +59,9 @@
 4、通过获取页面内容得到实际结果进行断言</t>
   </si>
   <si>
+    <t>用户名或密码错误!</t>
+  </si>
+  <si>
     <t>账号错误</t>
   </si>
   <si>
@@ -71,9 +74,6 @@
 4、通过获取页面内容得到实际结果进行断言</t>
   </si>
   <si>
-    <t>用户名或密码输入错误</t>
-  </si>
-  <si>
     <t>密码错误</t>
   </si>
   <si>
@@ -84,9 +84,6 @@
 2、访问登录页面
 3、定位元素+元素操作输入错误的密码，点击登录
 4、通过获取页面内容得到实际结果进行断言</t>
-  </si>
-  <si>
-    <t>用户名或密码错误!</t>
   </si>
   <si>
     <t>登录成功</t>
@@ -109,10 +106,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -124,6 +121,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -131,52 +135,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,60 +211,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -252,6 +219,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -259,9 +242,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,187 +273,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,41 +464,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -535,11 +497,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,8 +548,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,7 +1039,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1101,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="66.4" customHeight="1" spans="1:5">
@@ -1109,16 +1106,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" ht="66.4" customHeight="1" spans="1:5">
@@ -1135,7 +1132,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1183,16 +1180,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
